--- a/biology/Écologie/Hautes-terres_du_sud_du_Nouveau-Brunswick/Hautes-terres_du_sud_du_Nouveau-Brunswick.xlsx
+++ b/biology/Écologie/Hautes-terres_du_sud_du_Nouveau-Brunswick/Hautes-terres_du_sud_du_Nouveau-Brunswick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hautes-terres du sud du Nouveau-Brunswick (anglais : Southern New Brunswick Uplands) sont une écorégion du cadre écologique canadien faisant partie de l'écozone maritime de l'Atlantique. Elle comprend les plateaux des collines Calédoniennes et des collines Sainte-Croix.
 </t>
@@ -511,9 +523,11 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de l'écorégion est une forêt mixte composée d'érable à sucre, d'érable rouge, d'épinette blanche, d'épinette rouge et de sapin baumier. Ses parties les plus chaudes sont dominées par l'érable à sucre et le hêtre à grandes feuilles et ses parties les plus sèches par le pin blanc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de l'écorégion est une forêt mixte composée d'érable à sucre, d'érable rouge, d'épinette blanche, d'épinette rouge et de sapin baumier. Ses parties les plus chaudes sont dominées par l'érable à sucre et le hêtre à grandes feuilles et ses parties les plus sèches par le pin blanc.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les principaux animaux sont l'orignal, ours noir, le cerf de Virginie, le renard roux, le lièvre d'Amérique, le porc-épic d'Amérique, le pékan, le coyote, le castor du Canada, la gélinotte huppée le lynx roux et le rat musqué[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux animaux sont l'orignal, ours noir, le cerf de Virginie, le renard roux, le lièvre d'Amérique, le porc-épic d'Amérique, le pékan, le coyote, le castor du Canada, la gélinotte huppée le lynx roux et le rat musqué.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Aire protégée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seules 3,8 % des terres de cette écorégion sont protégées[2]. L'est de l'écorégion est situé dans la réserve de biosphère de Fundy.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seules 3,8 % des terres de cette écorégion sont protégées. L'est de l'écorégion est situé dans la réserve de biosphère de Fundy.
 </t>
         </is>
       </c>
